--- a/Share/Price list/ATALI-02FEB2023.xlsx
+++ b/Share/Price list/ATALI-02FEB2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Share\Price list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7096,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A772" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A804" sqref="A804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,7 +7114,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="79">
         <f ca="1">TODAY()</f>
-        <v>44959</v>
+        <v>44977</v>
       </c>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>

--- a/Share/Price list/ATALI-02FEB2023.xlsx
+++ b/Share/Price list/ATALI-02FEB2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7096,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A772" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A804" sqref="A804"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A958" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C991" sqref="C991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,7 +7114,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="79">
         <f ca="1">TODAY()</f>
-        <v>44977</v>
+        <v>44998</v>
       </c>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>

--- a/Share/Price list/ATALI-02FEB2023.xlsx
+++ b/Share/Price list/ATALI-02FEB2023.xlsx
@@ -7096,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A958" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C991" sqref="C991"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1066" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1093" sqref="C1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,7 +7114,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="79">
         <f ca="1">TODAY()</f>
-        <v>44998</v>
+        <v>45021</v>
       </c>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>
